--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1742.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1742.xlsx
@@ -351,10 +351,10 @@
         <v>0.9925127939677747</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.769930489378448</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1742.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1742.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9925127939677747</v>
+        <v>0.9743480086326599</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.9325898885726929</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.769930489378448</v>
+        <v>1.587123155593872</v>
       </c>
       <c r="E1">
-        <v>1.2873881528913</v>
+        <v>0.9593753814697266</v>
       </c>
     </row>
   </sheetData>
